--- a/biology/Zoologie/Capitaine_Achab_(film)/Capitaine_Achab_(film).xlsx
+++ b/biology/Zoologie/Capitaine_Achab_(film)/Capitaine_Achab_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capitaine Achab est un film suédois réalisé par Philippe Ramos, sorti en 2007. Il est basé sur un moyen-métrage du même réalisateur sorti en 2003.
 Ces deux films sont librement inspirés du roman d'Herman Melville, Moby Dick.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1840. Qui aurait bien pu imaginer que ce jeune garçon lisant la Bible dans une cabane de chasse perdue au milieu des bois, deviendrait un jour capitaine de navire baleinier ? Personne. Et pourtant, de mains tendues en coups reçus, Achab grandit et s’empare des océans. Devenu un capitaine redoutable, il rencontre une baleine éblouissante de blancheur : Moby Dick.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Philippe Ramos
 Scénario : Philippe Ramos, d'après Moby Dick d'Herman Melville
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Denis Lavant : Capitaine Achab
 Virgil Leclair : Achab enfant
@@ -637,7 +655,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  moyen métrage Capitaine Achab a obtenu le prix de la presse 2003 au Festival du film court de Paris, et le prix de la presse 2004 au Festival Côté court de Pantin. Il a fait partie des douze courts métrages pré-sélectionnés pour les nominations des César 2005.
 Le long métrage Capitaine Achab a obtenu le Prix de la mise en scène et le Prix de la critique internationale au Festival de Locarno 2007 (sélection officielle).
@@ -669,10 +689,12 @@
           <t>Le moyen métrage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En guise d'esquisse de son long métrage, Philippe Ramos a d'abord réalisé un moyen métrage, sorti en 2003, avec Frédéric Bonpart dans le rôle d'Achab et Valérie Crunchant dans celui de Louise.
-Ce film a fait l'objet d'une programmation dans de nombreux festival depuis le Festival du film court de Paris (décembre 2003) jusqu'à l'Atelier de programmation à La Ferme du Buisson (avril 2005) en passant par le Festival de Cannes (Section Quinzaine des réalisateurs 2004) et le  Festival Étonnants Voyageurs de Saint-Malo[1]. Il a également fait l'objet de plusieurs diffusions sur Arte.
+Ce film a fait l'objet d'une programmation dans de nombreux festival depuis le Festival du film court de Paris (décembre 2003) jusqu'à l'Atelier de programmation à La Ferme du Buisson (avril 2005) en passant par le Festival de Cannes (Section Quinzaine des réalisateurs 2004) et le  Festival Étonnants Voyageurs de Saint-Malo. Il a également fait l'objet de plusieurs diffusions sur Arte.
 Il dure 25 minutes.
 </t>
         </is>
